--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -1,34 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64599\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8AE0A-31AD-484B-B0EC-91C7AAAFBDEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
     <sheet name="文件修改控制" sheetId="5" r:id="rId2"/>
     <sheet name="封面" sheetId="6" r:id="rId3"/>
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -303,11 +317,15 @@
     <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>讲课声音有点小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="63">
     <font>
       <sz val="12"/>
@@ -1385,7 +1403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,6 +1721,18 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1712,6 +1742,104 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1755,115 +1883,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1872,15 +1905,15 @@
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="標準_Book1" xfId="6"/>
+    <cellStyle name="標準_Book1" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_SEP裁剪工作表" xfId="8"/>
-    <cellStyle name="常规_Sheet2" xfId="9"/>
-    <cellStyle name="常规_封页" xfId="10"/>
-    <cellStyle name="常规_工作申请表Job Application Form" xfId="11"/>
-    <cellStyle name="常规_模板类文件Excel模板" xfId="12"/>
-    <cellStyle name="常规_评审记录_TTTT" xfId="13"/>
+    <cellStyle name="常规_SEP裁剪工作表" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规_Sheet2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规_封页" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规_工作申请表Job Application Form" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规_模板类文件Excel模板" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规_评审记录_TTTT" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="好" xfId="14" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="15" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -1891,7 +1924,7 @@
     <cellStyle name="适中" xfId="21" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="23" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="样式 1" xfId="24"/>
+    <cellStyle name="样式 1" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="注释" xfId="25" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1924,7 +1957,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3080" name="Group 1"/>
+        <xdr:cNvPr id="3080" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -1939,7 +1978,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3081" name="Freeform 2"/>
+          <xdr:cNvPr id="3081" name="Freeform 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -2088,7 +2133,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3082" name="Freeform 3"/>
+          <xdr:cNvPr id="3082" name="Freeform 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -3474,7 +3525,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3083" name="Freeform 4"/>
+          <xdr:cNvPr id="3083" name="Freeform 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -4283,7 +4340,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3084" name="Freeform 5"/>
+          <xdr:cNvPr id="3084" name="Freeform 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -5836,7 +5899,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3085" name="Freeform 6"/>
+          <xdr:cNvPr id="3085" name="Freeform 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -7375,7 +7444,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3086" name="Freeform 7"/>
+          <xdr:cNvPr id="3086" name="Freeform 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -8370,7 +8445,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4104" name="Group 1"/>
+        <xdr:cNvPr id="4104" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -8385,7 +8466,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4105" name="Freeform 2"/>
+          <xdr:cNvPr id="4105" name="Freeform 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -8534,7 +8621,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4106" name="Freeform 3"/>
+          <xdr:cNvPr id="4106" name="Freeform 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -9920,7 +10013,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4107" name="Freeform 4"/>
+          <xdr:cNvPr id="4107" name="Freeform 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -10729,7 +10828,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4108" name="Freeform 5"/>
+          <xdr:cNvPr id="4108" name="Freeform 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -12282,7 +12387,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4109" name="Freeform 6"/>
+          <xdr:cNvPr id="4109" name="Freeform 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -13821,7 +13932,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4110" name="Freeform 7"/>
+          <xdr:cNvPr id="4110" name="Freeform 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -14816,7 +14933,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2050" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -14872,8 +14995,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFB2B49-46CB-448C-9A4B-B97945A61022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8061960" y="76200"/>
+          <a:ext cx="1823085" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E41B1F8-C4BA-41D0-A1E9-4FF95082E847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8061960" y="76200"/>
+          <a:ext cx="1823085" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14948,6 +15224,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14983,6 +15276,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15158,66 +15468,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="8.34765625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" style="29" customWidth="1"/>
     <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="22.5">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="22.2">
       <c r="A1" s="22"/>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="22.5">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="22.2">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A4" s="24"/>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A5" s="24"/>
     </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A6" s="24"/>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A7" s="24"/>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A8" s="24"/>
     </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A9" s="24"/>
     </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A10" s="24"/>
     </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A11" s="24"/>
     </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A12" s="24"/>
       <c r="C12" s="47"/>
     </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -15229,19 +15539,19 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-    </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="18.3">
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -15252,7 +15562,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="18">
       <c r="A17" s="48" t="s">
         <v>25</v>
       </c>
@@ -15265,7 +15575,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="17.7">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="18">
       <c r="A18" s="49">
         <v>40142</v>
       </c>
@@ -15278,7 +15588,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -15289,7 +15599,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -15300,7 +15610,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -15311,7 +15621,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -15421,7 +15731,7 @@
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -15558,7 +15868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15568,13 +15878,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.59765625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="57" customWidth="1"/>
     <col min="5" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6">
+    <row r="1" spans="1:5" ht="28.2">
       <c r="A1" s="54" t="s">
         <v>28</v>
       </c>
@@ -15583,13 +15893,13 @@
       <c r="D1" s="55"/>
       <c r="E1" s="56"/>
     </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
       <c r="A2" s="58"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
     </row>
-    <row r="3" spans="1:5" ht="15.3">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="59" t="s">
         <v>14</v>
       </c>
@@ -15603,7 +15913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A4" s="60">
         <v>1</v>
       </c>
@@ -15623,13 +15933,13 @@
       <c r="C5" s="64"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
       <c r="D6" s="62"/>
     </row>
-    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="61"/>
@@ -15641,13 +15951,13 @@
       <c r="C8" s="64"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A10" s="60"/>
       <c r="B10" s="65"/>
       <c r="C10" s="61"/>
@@ -15659,7 +15969,7 @@
       <c r="C11" s="64"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A12" s="60"/>
       <c r="B12" s="65"/>
       <c r="C12" s="61"/>
@@ -15671,7 +15981,7 @@
       <c r="C13" s="64"/>
       <c r="D13" s="62"/>
     </row>
-    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.3">
+    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.6">
       <c r="A14" s="60"/>
       <c r="B14" s="65"/>
       <c r="C14" s="61"/>
@@ -15701,19 +16011,19 @@
       <c r="C18" s="66"/>
       <c r="D18" s="62"/>
     </row>
-    <row r="19" spans="1:4" ht="15.3">
+    <row r="19" spans="1:4" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="65"/>
       <c r="C19" s="67"/>
       <c r="D19" s="62"/>
     </row>
-    <row r="20" spans="1:4" ht="15.3">
+    <row r="20" spans="1:4" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="65"/>
       <c r="C20" s="68"/>
       <c r="D20" s="62"/>
     </row>
-    <row r="21" spans="1:4" ht="15.3">
+    <row r="21" spans="1:4" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="65"/>
       <c r="C21" s="68"/>
@@ -15779,14 +16089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="98" customWidth="1"/>
     <col min="2" max="4" width="9.59765625" style="98" customWidth="1"/>
     <col min="5" max="5" width="13.09765625" style="98" customWidth="1"/>
     <col min="6" max="6" width="9.59765625" style="98" customWidth="1"/>
@@ -15816,42 +16126,42 @@
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
     </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="18.3">
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.399999999999999">
       <c r="A4" s="46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A5" s="75"/>
     </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A6" s="75"/>
     </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A7" s="75"/>
     </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A8" s="75"/>
     </row>
     <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
       <c r="A9" s="75"/>
     </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A10" s="75"/>
     </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A11" s="75"/>
     </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A12" s="75"/>
     </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A13" s="75"/>
     </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A14" s="75"/>
     </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="17.7">
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
       <c r="A15" s="76"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
@@ -15861,19 +16171,19 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" ht="46.2">
-      <c r="A16" s="102" t="s">
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="45">
+      <c r="A16" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="15.9">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="16.2">
       <c r="A17" s="79"/>
       <c r="B17" s="80"/>
       <c r="C17" s="81"/>
@@ -15883,7 +16193,7 @@
       <c r="G17" s="81"/>
       <c r="H17" s="81"/>
     </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.7">
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.4">
       <c r="A18" s="82" t="s">
         <v>43</v>
       </c>
@@ -15895,7 +16205,7 @@
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="1:8" s="71" customFormat="1" ht="17.7">
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -15915,7 +16225,7 @@
       <c r="G20" s="77"/>
       <c r="H20" s="77"/>
     </row>
-    <row r="21" spans="1:8" s="71" customFormat="1" ht="17.7">
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
       <c r="A21" s="49"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
@@ -15925,7 +16235,7 @@
       <c r="G21" s="77"/>
       <c r="H21" s="77"/>
     </row>
-    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.2" customHeight="1">
       <c r="A22" s="84" t="s">
         <v>33</v>
       </c>
@@ -15937,7 +16247,7 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
     </row>
-    <row r="23" spans="1:8" s="71" customFormat="1" ht="17.7">
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
       <c r="A23" s="76"/>
       <c r="B23" s="77"/>
       <c r="C23" s="77"/>
@@ -15997,7 +16307,7 @@
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
     </row>
-    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.2" customHeight="1">
       <c r="A29" s="86" t="s">
         <v>34</v>
       </c>
@@ -16061,17 +16371,17 @@
       <c r="A34" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="17.7">
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
       <c r="A35" s="76"/>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
@@ -16081,7 +16391,7 @@
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
     </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="18.899999999999999">
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="19.2">
       <c r="A36" s="95"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -16123,40 +16433,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.34765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.84765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16173,7 +16483,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="100" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -16185,7 +16495,7 @@
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="101" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="43" t="s">
@@ -16213,46 +16523,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="112">
         <v>7.18</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="118">
         <v>7.18</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16271,19 +16581,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16292,20 +16602,20 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="34">
         <v>2</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="G10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="146" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="102" t="s">
         <v>50</v>
       </c>
     </row>
@@ -16313,94 +16623,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -16420,78 +16730,88 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="112" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.3">
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:10" ht="15.3">
+    <row r="25" spans="2:10" ht="15.6">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:10" ht="15.3">
+    <row r="26" spans="2:10" ht="15.6">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:10" ht="15.3">
+    <row r="27" spans="2:10" ht="15.6">
       <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -16500,28 +16820,428 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E0C01-AD71-40F0-A72B-3F6185A86DC7}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="148">
+        <v>7.19</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="149">
+        <v>7.19</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="150" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{48A26971-A428-42E2-AAED-D4266DB05C11}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{17AF1567-8628-4FF5-891C-F979801AA055}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{9355CE14-96D3-4F3D-BD8D-3B78B4A8BA0D}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64599\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
     <sheet name="文件修改控制" sheetId="5" r:id="rId2"/>
     <sheet name="封面" sheetId="6" r:id="rId3"/>
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
+    <sheet name="7.19" sheetId="7" r:id="rId5"/>
+    <sheet name="7.20" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -301,6 +303,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲课声音偏小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲课声音偏小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业难度偏大</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,6 +1717,18 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,6 +1781,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1768,6 +1798,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1801,6 +1835,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1841,29 +1879,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -14838,6 +14855,152 @@
         <a:xfrm>
           <a:off x="8086725" y="76200"/>
           <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8081010" y="76200"/>
+          <a:ext cx="1826895" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15229,17 +15392,17 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:9" s="23" customFormat="1" ht="18.3">
       <c r="A16" s="27"/>
@@ -15862,16 +16025,16 @@
       <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:9" s="78" customFormat="1" ht="46.2">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="1:8" s="78" customFormat="1" ht="15.9">
       <c r="A17" s="79"/>
@@ -16061,15 +16224,15 @@
       <c r="A34" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:8" s="71" customFormat="1" ht="17.7">
       <c r="A35" s="76"/>
@@ -16126,8 +16289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="B1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16146,17 +16309,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16173,7 +16336,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="100" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -16185,7 +16348,7 @@
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="101" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="43" t="s">
@@ -16213,46 +16376,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="138">
         <v>7.18</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="144">
         <v>7.18</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16271,19 +16434,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16292,20 +16455,20 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="34">
         <v>2</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="G10" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="146" t="s">
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="102" t="s">
         <v>50</v>
       </c>
     </row>
@@ -16313,94 +16476,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -16420,57 +16583,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="112" t="s">
+      <c r="D19" s="110"/>
+      <c r="E19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="24" spans="2:10" ht="15.3">
       <c r="B24" s="42"/>
@@ -16528,4 +16691,817 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.19</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.19</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="7.19" sheetId="7" r:id="rId5"/>
     <sheet name="7.20" sheetId="8" r:id="rId6"/>
+    <sheet name="7.21" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -315,6 +316,22 @@
   </si>
   <si>
     <t>作业难度偏大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找资料、与小组成员讨论</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务量偏大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1399,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,96 +1756,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1879,8 +1806,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -14963,6 +14983,79 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16309,17 +16402,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16376,46 +16469,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="112">
         <v>7.18</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="118">
         <v>7.18</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16434,19 +16527,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16455,19 +16548,19 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="34">
         <v>2</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16476,94 +16569,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -16583,57 +16676,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="24" spans="2:10" ht="15.3">
       <c r="B24" s="42"/>
@@ -16649,12 +16742,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -16663,22 +16766,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16704,17 +16797,17 @@
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -16771,46 +16864,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="112">
         <v>7.19</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="118">
         <v>7.19</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -16829,19 +16922,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16850,19 +16943,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16871,94 +16964,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -16978,18 +17071,18 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
@@ -16998,39 +17091,447 @@
       <c r="B20" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="112">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="118">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17089,9 +17590,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17099,28 +17600,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17144,7 +17645,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -17177,46 +17678,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.2</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.21</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="B7" s="118">
+        <v>7.21</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17235,19 +17736,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17256,19 +17757,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17277,94 +17778,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17384,61 +17885,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>56</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17497,9 +17998,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="7.19" sheetId="7" r:id="rId5"/>
     <sheet name="7.20" sheetId="8" r:id="rId6"/>
     <sheet name="7.21" sheetId="9" r:id="rId7"/>
+    <sheet name="7.22" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -332,6 +333,22 @@
   </si>
   <si>
     <t>加班完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成代码部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug较多</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1756,6 +1773,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1805,96 +1912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -15056,6 +15073,79 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16402,17 +16492,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16469,46 +16559,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="138">
         <v>7.18</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="144">
         <v>7.18</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16527,19 +16617,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16548,19 +16638,19 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="34">
         <v>2</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16569,94 +16659,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -16676,57 +16766,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="110"/>
+      <c r="E19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="24" spans="2:10" ht="15.3">
       <c r="B24" s="42"/>
@@ -16742,6 +16832,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -16750,28 +16862,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16797,17 +16887,17 @@
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -16864,46 +16954,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="138">
         <v>7.19</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="144">
         <v>7.19</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -16922,19 +17012,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16943,19 +17033,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16964,94 +17054,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17071,18 +17161,18 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
@@ -17091,39 +17181,447 @@
       <c r="B20" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17182,9 +17680,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17192,28 +17690,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:I32"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17237,13 +17735,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -17270,46 +17768,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="B5" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="112">
-        <v>7.2</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="138">
+        <v>7.21</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="118">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="B7" s="144">
+        <v>7.21</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17328,19 +17826,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17349,19 +17847,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="B10" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17370,94 +17868,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17477,61 +17975,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
+        <v>56</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17590,9 +18088,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17600,28 +18098,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D21" sqref="D21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17645,13 +18143,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -17678,46 +18176,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="B5" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="112">
-        <v>7.21</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="138">
+        <v>7.22</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="118">
-        <v>7.21</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="B7" s="144">
+        <v>7.22</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17736,19 +18234,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17757,19 +18255,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="F10" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17778,94 +18276,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17885,61 +18383,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="140"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="114"/>
       <c r="D20" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
       <c r="B21" s="147"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17998,9 +18496,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="7.20" sheetId="8" r:id="rId6"/>
     <sheet name="7.21" sheetId="9" r:id="rId7"/>
     <sheet name="7.22" sheetId="10" r:id="rId8"/>
+    <sheet name="7.23" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -349,6 +350,22 @@
   </si>
   <si>
     <t>bug较多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>听老师讲解进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1773,96 +1790,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1912,6 +1839,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -15218,6 +15235,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -16492,17 +16582,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16559,46 +16649,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="112">
         <v>7.18</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="118">
         <v>7.18</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16617,19 +16707,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16638,19 +16728,19 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="34">
         <v>2</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16659,94 +16749,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -16766,57 +16856,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="24" spans="2:10" ht="15.3">
       <c r="B24" s="42"/>
@@ -16832,12 +16922,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -16846,22 +16946,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16887,17 +16977,17 @@
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -16954,46 +17044,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="112">
         <v>7.19</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="118">
         <v>7.19</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17012,19 +17102,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17033,19 +17123,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17054,94 +17144,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17161,18 +17251,18 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
@@ -17181,39 +17271,447 @@
       <c r="B20" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="112">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="118">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17272,9 +17770,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17282,28 +17780,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:I32"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17327,13 +17825,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -17360,46 +17858,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.2</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.21</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="B7" s="118">
+        <v>7.21</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17418,19 +17916,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17439,19 +17937,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17460,94 +17958,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17567,61 +18065,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>56</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17680,9 +18178,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17690,28 +18188,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G26" sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17735,13 +18233,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -17768,46 +18266,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.21</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.22</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.21</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="B7" s="118">
+        <v>7.22</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17826,19 +18324,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17847,19 +18345,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17868,94 +18366,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17975,61 +18473,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="114"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="140"/>
       <c r="D20" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
       <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18088,9 +18586,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18098,28 +18596,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:I21"/>
+      <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -18143,13 +18641,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -18176,46 +18674,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.22</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.23</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.22</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="B7" s="118">
+        <v>7.23</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -18234,19 +18732,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -18255,19 +18753,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -18276,94 +18774,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -18383,61 +18881,59 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>65</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
       <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18496,9 +18992,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="7.21" sheetId="9" r:id="rId7"/>
     <sheet name="7.22" sheetId="10" r:id="rId8"/>
     <sheet name="7.23" sheetId="11" r:id="rId9"/>
+    <sheet name="7.24" sheetId="12" r:id="rId10"/>
+    <sheet name="7.25" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="76">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -366,6 +368,46 @@
   </si>
   <si>
     <t>暂无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做图形界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做图形界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有基础，难度较大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>听老师讲解和自学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善图形界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做word文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1790,6 +1832,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1839,96 +1971,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8419,6 +8461,79 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15308,6 +15423,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -15993,1001 +16181,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.6">
-      <c r="A1" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.3">
-      <c r="A3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A4" s="60">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="62">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="63" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:5" s="63" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" s="63" customFormat="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" s="63" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:5" s="63" customFormat="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:5" s="63" customFormat="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="62"/>
-    </row>
-    <row r="17" spans="1:4" s="63" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="62"/>
-    </row>
-    <row r="18" spans="1:4" s="63" customFormat="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="69"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="69"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="69"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="69"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="69"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="69"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="69"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="69"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="69"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="69"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="69"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="69"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="69"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="69"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="69"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="69"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="69"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.3"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="98" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="98" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.8">
-      <c r="A1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.8">
-      <c r="A3" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="18.3">
-      <c r="A4" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" ht="46.2">
-      <c r="A16" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="15.9">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.7">
-      <c r="A18" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-    </row>
-    <row r="20" spans="1:8" s="71" customFormat="1" ht="46.2">
-      <c r="A20" s="83"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A21" s="49"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-    </row>
-    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-    </row>
-    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" s="88" customFormat="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:8" s="88" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-    </row>
-    <row r="32" spans="1:8" s="88" customFormat="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="18.899999999999999">
-      <c r="A36" s="95"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="96"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="97"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="B1:J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.34765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.84765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>7.18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-    </row>
-    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="112">
-        <v>7.18</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="118">
-        <v>7.18</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="36">
-        <v>1</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="34">
-        <v>2</v>
-      </c>
-      <c r="G10" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="36">
-        <v>2</v>
-      </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="37">
-        <v>3</v>
-      </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="36">
-        <v>4</v>
-      </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="36">
-        <v>5</v>
-      </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="37">
-        <v>6</v>
-      </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="36">
-        <v>7</v>
-      </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="44">
-        <f>SUM(F10:F16)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
-    </row>
-    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="38">
-        <v>1</v>
-      </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-    </row>
-    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="39">
-        <v>2</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="40">
-        <v>3</v>
-      </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.3">
-      <c r="B24" s="42"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.3">
-      <c r="B25" s="42"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.3">
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.3">
-      <c r="B27" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:P20"/>
+      <selection activeCell="L27" sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17011,13 +16226,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.19</v>
+        <v>7.24</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -17044,46 +16259,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="B5" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="112">
-        <v>7.19</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="138">
+        <v>7.24</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="118">
-        <v>7.19</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="B7" s="144">
+        <v>7.24</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17102,19 +16317,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17123,19 +16338,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="B10" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17144,94 +16359,94 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17251,59 +16466,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
+        <v>69</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="148" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17362,9 +16579,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17372,28 +16589,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21">
       <c r="A2" s="2"/>
@@ -17417,13 +16634,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -17450,46 +16667,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="B5" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="112">
-        <v>7.2</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="138">
+        <v>7.25</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="118">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="B7" s="144">
+        <v>7.25</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17" t="s">
@@ -17508,19 +16725,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17529,19 +16746,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="B10" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -17550,94 +16767,100 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
+      <c r="B11" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34">
+        <v>2</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15.6">
@@ -17657,1283 +16880,59 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
+        <v>75</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="42"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>7.21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="112">
-        <v>7.21</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="118">
-        <v>7.21</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.8">
-      <c r="A9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="34">
-        <v>5</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37">
-        <v>3</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="36">
-        <v>4</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="36">
-        <v>5</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37">
-        <v>6</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="36">
-        <v>7</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="44">
-        <f>SUM(E10:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6">
-      <c r="A18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="38">
-        <v>1</v>
-      </c>
-      <c r="B20" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="39">
-        <v>2</v>
-      </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A22" s="40">
-        <v>3</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="42"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="A1:I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>7.22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="112">
-        <v>7.22</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="118">
-        <v>7.22</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.8">
-      <c r="A9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="34">
-        <v>5</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37">
-        <v>3</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="36">
-        <v>4</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="36">
-        <v>5</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37">
-        <v>6</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="36">
-        <v>7</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="44">
-        <f>SUM(E10:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6">
-      <c r="A18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="38">
-        <v>1</v>
-      </c>
-      <c r="B20" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="39">
-        <v>2</v>
-      </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A22" s="40">
-        <v>3</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="42"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="112">
-        <v>7.23</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="118">
-        <v>7.23</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.8">
-      <c r="A9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="34">
-        <v>5</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37">
-        <v>3</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="36">
-        <v>4</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="36">
-        <v>5</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37">
-        <v>6</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="36">
-        <v>7</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="44">
-        <f>SUM(E10:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6">
-      <c r="A18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="143"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="38">
-        <v>1</v>
-      </c>
-      <c r="B20" s="147" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="146"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="39">
-        <v>2</v>
-      </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A22" s="40">
-        <v>3</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18999,4 +16998,3013 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6">
+      <c r="A1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.3">
+      <c r="A3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="62">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="63" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" s="63" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" s="63" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" s="63" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.3">
+      <c r="A14" s="60"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5" s="63" customFormat="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5" s="63" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4" s="63" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" s="63" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.3">
+      <c r="A19" s="60"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.3">
+      <c r="A20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.3">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="69"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="69"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="69"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="69"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="69"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="69"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="69"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="69"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="69"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="69"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="69"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="69"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="69"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="69"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="69"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="69"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.8">
+      <c r="A1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.8">
+      <c r="A3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="18.3">
+      <c r="A4" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="17.7">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="46.2">
+      <c r="A16" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="15.9">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.7">
+      <c r="A18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="17.7">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="71" customFormat="1" ht="46.2">
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="17.7">
+      <c r="A21" s="49"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="17.7">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+    </row>
+    <row r="30" spans="1:8" s="88" customFormat="1">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" s="88" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:8" s="88" customFormat="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="17.7">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="18.899999999999999">
+      <c r="A36" s="95"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="96"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="97"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="B1:J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.34765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.84765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="138">
+        <v>7.18</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="144">
+        <v>7.18</v>
+      </c>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.3">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.3">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.3">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.3">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.19</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.19</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.21</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.21</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>5</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="A1:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.22</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.22</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>5</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="A1:I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="138">
+        <v>7.23</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="144">
+        <v>7.23</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.8">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="34">
+        <v>5</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_王锦祥.xlsx
+++ b/个人日报/个人日报_王锦祥.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SummerTraining\个人日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA125196-225D-465E-839B-26DBDEC6E709}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="78" windowWidth="14958" windowHeight="7998" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -23,6 +24,7 @@
     <sheet name="7.23" sheetId="11" r:id="rId9"/>
     <sheet name="7.24" sheetId="12" r:id="rId10"/>
     <sheet name="7.25" sheetId="13" r:id="rId11"/>
+    <sheet name="7.26" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -30,12 +32,20 @@
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="106">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -410,11 +420,184 @@
     <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>个  人  日  报</t>
+  </si>
+  <si>
+    <t>姓名：</t>
+  </si>
+  <si>
+    <t>日期：</t>
+  </si>
+  <si>
+    <t>项目名称:</t>
+  </si>
+  <si>
+    <t>电子词典</t>
+  </si>
+  <si>
+    <t>小组编号：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2班</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键任务跟踪</t>
+    </r>
+  </si>
+  <si>
+    <t>关键任务</t>
+  </si>
+  <si>
+    <t>计划日期</t>
+  </si>
+  <si>
+    <t>实际日期</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日工作记录跟踪</t>
+    </r>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>工作时间(小时)</t>
+  </si>
+  <si>
+    <t>工作方法和结果</t>
+  </si>
+  <si>
+    <t>任务是否完成</t>
+  </si>
+  <si>
+    <t>小组讨论项目，总结经验</t>
+  </si>
+  <si>
+    <t>小组讨论</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>做个人项目介绍PPT</t>
+  </si>
+  <si>
+    <t>根据项目内容完成PPT</t>
+  </si>
+  <si>
+    <t>写个人实训总结</t>
+  </si>
+  <si>
+    <t>总结项目经验</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要问题</t>
+    </r>
+  </si>
+  <si>
+    <t>问题、建议及反馈</t>
+  </si>
+  <si>
+    <t>措     施</t>
+  </si>
+  <si>
+    <t>注：文件名称格式为 个人日报_姓名.xls，Sheet名 为当天日期</t>
+  </si>
+  <si>
+    <t>例如：个人日报_李平.xls</t>
+  </si>
+  <si>
+    <t>完结项目、小组总结讨论、写个人项目介绍PPT、个人实训总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="63">
     <font>
       <sz val="12"/>
@@ -1492,7 +1675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1832,96 +2015,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1972,11 +2065,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1985,15 +2184,15 @@
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="標準_Book1" xfId="6"/>
+    <cellStyle name="標準_Book1" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_SEP裁剪工作表" xfId="8"/>
-    <cellStyle name="常规_Sheet2" xfId="9"/>
-    <cellStyle name="常规_封页" xfId="10"/>
-    <cellStyle name="常规_工作申请表Job Application Form" xfId="11"/>
-    <cellStyle name="常规_模板类文件Excel模板" xfId="12"/>
-    <cellStyle name="常规_评审记录_TTTT" xfId="13"/>
+    <cellStyle name="常规_SEP裁剪工作表" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规_Sheet2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规_封页" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规_工作申请表Job Application Form" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规_模板类文件Excel模板" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规_评审记录_TTTT" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="好" xfId="14" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="15" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -2004,7 +2203,7 @@
     <cellStyle name="适中" xfId="21" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="23" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="样式 1" xfId="24"/>
+    <cellStyle name="样式 1" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="注释" xfId="25" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2037,7 +2236,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3080" name="Group 1"/>
+        <xdr:cNvPr id="3080" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -2052,7 +2257,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3081" name="Freeform 2"/>
+          <xdr:cNvPr id="3081" name="Freeform 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -2201,7 +2412,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3082" name="Freeform 3"/>
+          <xdr:cNvPr id="3082" name="Freeform 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -3587,7 +3804,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3083" name="Freeform 4"/>
+          <xdr:cNvPr id="3083" name="Freeform 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -4396,7 +4619,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3084" name="Freeform 5"/>
+          <xdr:cNvPr id="3084" name="Freeform 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -5949,7 +6178,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3085" name="Freeform 6"/>
+          <xdr:cNvPr id="3085" name="Freeform 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -7488,7 +7723,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3086" name="Freeform 7"/>
+          <xdr:cNvPr id="3086" name="Freeform 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E0C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -8483,7 +8724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8539,6 +8786,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF5A020-7979-4557-8BEA-D5B932B6A188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8556,7 +8882,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4104" name="Group 1"/>
+        <xdr:cNvPr id="4104" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -8571,7 +8903,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4105" name="Freeform 2"/>
+          <xdr:cNvPr id="4105" name="Freeform 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -8720,7 +9058,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4106" name="Freeform 3"/>
+          <xdr:cNvPr id="4106" name="Freeform 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -10106,7 +10450,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4107" name="Freeform 4"/>
+          <xdr:cNvPr id="4107" name="Freeform 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -10915,7 +11265,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4108" name="Freeform 5"/>
+          <xdr:cNvPr id="4108" name="Freeform 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -12468,7 +12824,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4109" name="Freeform 6"/>
+          <xdr:cNvPr id="4109" name="Freeform 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noEditPoints="1"/>
           </xdr:cNvSpPr>
@@ -14007,7 +14369,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4110" name="Freeform 7"/>
+          <xdr:cNvPr id="4110" name="Freeform 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E100000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1"/>
           </xdr:cNvSpPr>
@@ -15002,7 +15370,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2050" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15075,7 +15449,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15148,7 +15528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15221,7 +15607,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15294,7 +15686,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15367,7 +15765,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15440,7 +15844,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15497,7 +15907,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15572,6 +15982,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15607,6 +16034,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15782,66 +16226,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="8.34765625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" style="29" customWidth="1"/>
     <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="22.5">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="22.2">
       <c r="A1" s="22"/>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="22.5">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="22.2">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A4" s="24"/>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A5" s="24"/>
     </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A6" s="24"/>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A7" s="24"/>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A8" s="24"/>
     </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A9" s="24"/>
     </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A10" s="24"/>
     </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A11" s="24"/>
     </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A12" s="24"/>
       <c r="C12" s="47"/>
     </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -15865,7 +16309,7 @@
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
     </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -15876,7 +16320,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="18">
       <c r="A17" s="48" t="s">
         <v>25</v>
       </c>
@@ -15889,7 +16333,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="17.7">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="18">
       <c r="A18" s="49">
         <v>40142</v>
       </c>
@@ -15902,7 +16346,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -15913,7 +16357,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -15924,7 +16368,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -15935,7 +16379,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -16045,7 +16489,7 @@
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="18.3">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -16182,29 +16626,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -16215,7 +16659,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -16242,7 +16686,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -16259,48 +16703,48 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="112">
         <v>7.24</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="118">
         <v>7.24</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -16313,23 +16757,23 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.8">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16338,19 +16782,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16359,97 +16803,97 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -16466,18 +16910,18 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
@@ -16486,41 +16930,41 @@
       <c r="B20" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
       <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -16543,6 +16987,856 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0900-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0900-000002000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="112">
+        <v>7.25</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="118">
+        <v>7.25</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="34">
+        <v>2</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="147"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0A00-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0A00-000002000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BF821C-3821-4482-81FA-85E63AB43A0A}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="149">
+        <v>43672</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="151">
+        <v>43672</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="152">
+        <v>43672</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="34">
+        <v>3</v>
+      </c>
+      <c r="F12" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="147"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -16579,40 +17873,1012 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{109150CB-D945-425A-8219-04BA4C79B455}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{7286AFF0-079C-4C55-870C-A01E19354505}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{BFDBF7F2-DC2F-410B-AE5F-CE8D2D7D4AF3}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2">
+      <c r="A1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="62">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="63" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" s="63" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" s="63" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" s="63" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A14" s="60"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5" s="63" customFormat="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5" s="63" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4" s="63" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" s="63" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="60"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="69"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="69"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="69"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="69"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="69"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="69"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="69"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="69"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="69"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="69"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="69"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="69"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="69"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="69"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="69"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="69"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" style="98" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.8">
+      <c r="A1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.8">
+      <c r="A3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="45">
+      <c r="A16" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="16.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.4">
+      <c r="A18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="71" customFormat="1" ht="46.2">
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A21" s="49"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+    </row>
+    <row r="30" spans="1:8" s="88" customFormat="1">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" s="88" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:8" s="88" customFormat="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="19.2">
+      <c r="A36" s="95"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="96"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="97"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="B1:J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="112">
+        <v>7.18</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="118">
+        <v>7.18</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -16623,7 +18889,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -16634,13 +18900,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -16650,7 +18916,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -16667,48 +18933,48 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.25</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.19</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.25</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="B7" s="118">
+        <v>7.19</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -16721,23 +18987,23 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.8">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16746,19 +19012,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
-        <v>1</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -16767,103 +19033,97 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="34">
-        <v>2</v>
-      </c>
-      <c r="F11" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>3</v>
-      </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -16880,59 +19140,59 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>51</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -16991,1012 +19251,40 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.6">
-      <c r="A1" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.3">
-      <c r="A3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A4" s="60">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="62">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="63" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:5" s="63" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" s="63" customFormat="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" s="63" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:5" s="63" customFormat="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:5" s="63" customFormat="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="62"/>
-    </row>
-    <row r="17" spans="1:4" s="63" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="62"/>
-    </row>
-    <row r="18" spans="1:4" s="63" customFormat="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="69"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="69"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="69"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="69"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="69"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="69"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="69"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="69"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="69"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="69"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="69"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="69"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="69"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="69"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="69"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="69"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="69"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.3"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="98" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="98" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.8">
-      <c r="A1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.8">
-      <c r="A3" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="18.3">
-      <c r="A4" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="17.7">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" ht="46.2">
-      <c r="A16" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="15.9">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.7">
-      <c r="A18" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-    </row>
-    <row r="20" spans="1:8" s="71" customFormat="1" ht="46.2">
-      <c r="A20" s="83"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A21" s="49"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-    </row>
-    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-    </row>
-    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" s="88" customFormat="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:8" s="88" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-    </row>
-    <row r="32" spans="1:8" s="88" customFormat="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="17.7">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="18.899999999999999">
-      <c r="A36" s="95"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="96"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="97"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="B1:J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.34765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.84765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>7.18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
-    </row>
-    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="138">
-        <v>7.18</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-    </row>
-    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="144">
-        <v>7.18</v>
-      </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="36">
-        <v>1</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="34">
-        <v>2</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="36">
-        <v>2</v>
-      </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="37">
-        <v>3</v>
-      </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="36">
-        <v>4</v>
-      </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="36">
-        <v>5</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="37">
-        <v>6</v>
-      </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="36">
-        <v>7</v>
-      </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="44">
-        <f>SUM(F10:F16)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-    </row>
-    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="38">
-        <v>1</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-    </row>
-    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="39">
-        <v>2</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-    </row>
-    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="40">
-        <v>3</v>
-      </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.3">
-      <c r="B24" s="42"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.3">
-      <c r="B25" s="42"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.3">
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.3">
-      <c r="B27" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:P20"/>
+      <selection activeCell="F32" sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18007,7 +19295,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -18018,7 +19306,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -18034,7 +19322,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -18051,48 +19339,48 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.19</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.19</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="B7" s="118">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -18105,23 +19393,23 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.8">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -18130,19 +19418,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -18151,97 +19439,97 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -18258,59 +19546,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>52</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="B21" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18369,9 +19659,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18379,30 +19669,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:I32"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18413,7 +19703,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -18424,13 +19714,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -18440,7 +19730,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -18457,48 +19747,48 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.2</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.21</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="B7" s="118">
+        <v>7.21</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -18511,23 +19801,23 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.8">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -18536,19 +19826,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -18557,97 +19847,97 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -18664,61 +19954,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>56</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="B21" s="147"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18777,9 +20067,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18787,30 +20077,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G26" sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18821,7 +20111,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -18832,13 +20122,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -18848,7 +20138,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -18865,48 +20155,48 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.21</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.22</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.21</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="B7" s="118">
+        <v>7.22</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -18919,23 +20209,23 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.8">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -18944,19 +20234,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -18965,97 +20255,97 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -19072,61 +20362,61 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="114"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="140"/>
       <c r="D20" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
       <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -19185,9 +20475,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0700-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19195,30 +20485,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="A1:I26"/>
+      <selection activeCell="G28" sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -19229,7 +20519,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -19240,13 +20530,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>17</v>
@@ -19256,7 +20546,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -19273,48 +20563,48 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="B5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
-        <v>7.22</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="112">
+        <v>7.23</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144">
-        <v>7.22</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="B7" s="118">
+        <v>7.23</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -19327,23 +20617,23 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="25.8">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -19352,19 +20642,19 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="B10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="102" t="s">
         <v>50</v>
       </c>
@@ -19373,97 +20663,97 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -19480,61 +20770,59 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+        <v>65</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
       <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+      <c r="C21" s="140"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -19593,415 +20881,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="138">
-        <v>7.23</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="144">
-        <v>7.23</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.8">
-      <c r="A9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="36">
-        <v>1</v>
-      </c>
-      <c r="B10" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="34">
-        <v>5</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="36">
-        <v>2</v>
-      </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37">
-        <v>3</v>
-      </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="36">
-        <v>4</v>
-      </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="36">
-        <v>5</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37">
-        <v>6</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="36">
-        <v>7</v>
-      </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="44">
-        <f>SUM(E10:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6">
-      <c r="A18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="38">
-        <v>1</v>
-      </c>
-      <c r="B20" s="147" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="39">
-        <v>2</v>
-      </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
-      <c r="A22" s="40">
-        <v>3</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="42"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{00000000-0002-0000-0800-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
